--- a/Excel/TestSheet.xlsx
+++ b/Excel/TestSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crdan_000\Documents\code\html_javascript\frc_scoutingpass_2024\ScoutingPASS\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crdan\Documents\code\javascript\FRC\ScoutingPASS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C0D11A-B476-4E37-BF18-025A9A5B60BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686FC7EF-4F63-4D7E-BA85-390E80BFDF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29835" yWindow="1125" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="503" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -413,15 +413,15 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>

--- a/Excel/TestSheet.xlsx
+++ b/Excel/TestSheet.xlsx
@@ -5,15 +5,16 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crdan\Documents\code\javascript\FRC\ScoutingPASS\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crdan_000\Documents\code\html_javascript\frc_scoutingpass_2024\ScoutingPASS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686FC7EF-4F63-4D7E-BA85-390E80BFDF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE9689A-ABCF-47DA-9636-F80C4A7C333D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="503" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="463" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,25 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
-  <si>
-    <t>Bs</t>
-  </si>
-  <si>
-    <t>Grand forks</t>
-  </si>
-  <si>
-    <t>qm</t>
-  </si>
-  <si>
-    <t>b2</t>
-  </si>
-  <si>
-    <t>[37]</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>s</t>
   </si>
@@ -62,34 +45,118 @@
     <t>v</t>
   </si>
   <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>Carter booty</t>
-  </si>
-  <si>
-    <t>Car</t>
-  </si>
-  <si>
     <t>r2</t>
   </si>
   <si>
-    <t>[48]</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
-    <t>Talon stinky</t>
+    <t>Initials</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Match Lvl</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Team #</t>
+  </si>
+  <si>
+    <t>Match #</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>grand forks</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>[13]</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>com</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>Amp Scores</t>
+  </si>
+  <si>
+    <t>Speaker Scores</t>
+  </si>
+  <si>
+    <t>Leave Starting Zone</t>
+  </si>
+  <si>
+    <t>Pickup From</t>
+  </si>
+  <si>
+    <t>Driver Skill</t>
+  </si>
+  <si>
+    <t>Speed Rating</t>
+  </si>
+  <si>
+    <t>Stage Timer</t>
+  </si>
+  <si>
+    <t>Final Status</t>
+  </si>
+  <si>
+    <t>Note in Trap</t>
+  </si>
+  <si>
+    <t>Defense Rating</t>
+  </si>
+  <si>
+    <t>Died/Immobilized</t>
+  </si>
+  <si>
+    <t>Tippy</t>
+  </si>
+  <si>
+    <t>Dropped Notes (&gt;2)</t>
+  </si>
+  <si>
+    <t>Good Alliance Partner?</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Times Amplified</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,12 +166,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -119,13 +192,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -133,8 +207,136 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBDE9FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFCCECFF"/>
+          <bgColor rgb="FF8FDAFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFCC99FF"/>
+          <bgColor rgb="FFD7AFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC99FF"/>
+          <bgColor rgb="FFEADCF4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Endgame" pivot="0" count="3" xr9:uid="{38911349-03B7-4372-9916-EB99E6E56839}">
+      <tableStyleElement type="wholeTable" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
+      <tableStyleElement type="firstRowStripe" dxfId="5"/>
+    </tableStyle>
+    <tableStyle name="Miscellaneous" pivot="0" count="4" xr9:uid="{4C99B414-7197-4D54-A8CA-E08CBAD8C634}">
+      <tableStyleElement type="wholeTable" dxfId="4"/>
+      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="firstRowStripe" dxfId="2"/>
+      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+    </tableStyle>
+  </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFBDE9FF"/>
+      <color rgb="FF8FDAFF"/>
+      <color rgb="FF66CCFF"/>
+      <color rgb="FFCCFFFF"/>
+      <color rgb="FFCCECFF"/>
+      <color rgb="FFD7AFFF"/>
+      <color rgb="FFFF99FF"/>
+      <color rgb="FFCC99FF"/>
+      <color rgb="FFCC66FF"/>
+      <color rgb="FFEADCF4"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -144,6 +346,956 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2134</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$2:$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Amp Scores</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Speaker Scores</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Times Amplified</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pickup From</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2DD4-4EDD-A279-4B57FD0B400F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="112510271"/>
+        <c:axId val="277674383"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="112510271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="277674383"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="277674383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="112510271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA33A55D-C0E5-41C5-6785-139B4F180D43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C7A2233C-D68F-446E-B77F-1EEE718B4FD7}" name="Prematch" displayName="Prematch" ref="A1:H1001" totalsRowShown="0">
+  <autoFilter ref="A1:H1001" xr:uid="{C7A2233C-D68F-446E-B77F-1EEE718B4FD7}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{D0D6531E-D858-4A62-BB08-CBCD8D97156F}" name="Initials"/>
+    <tableColumn id="2" xr3:uid="{52C70702-E211-4585-9ADB-DBB9FA4DBC3C}" name="Event"/>
+    <tableColumn id="3" xr3:uid="{A734BD0B-7EAC-4053-A5C0-41ECC7606859}" name="Match Lvl"/>
+    <tableColumn id="4" xr3:uid="{AB19CC63-6A31-4A12-931C-140FB2FBDB08}" name="Match #"/>
+    <tableColumn id="5" xr3:uid="{6541BE09-C16D-4767-8864-05F6C1060CAB}" name="Robot"/>
+    <tableColumn id="6" xr3:uid="{99E3D81F-DACC-4916-8502-654E416D2395}" name="Team #"/>
+    <tableColumn id="7" xr3:uid="{D70574A7-5694-49AA-AAE9-218646255544}" name="Position"/>
+    <tableColumn id="8" xr3:uid="{AF6056F9-47DF-434B-8550-F931BDBD9497}" name="Direction"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C1BB6AC7-3CD4-4B60-A618-2B4879125631}" name="Auton" displayName="Auton" ref="I1:K1001" totalsRowShown="0">
+  <autoFilter ref="I1:K1001" xr:uid="{C1BB6AC7-3CD4-4B60-A618-2B4879125631}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{2C5F63AE-D8EE-43EE-B33A-97644FC3C400}" name="Leave Starting Zone"/>
+    <tableColumn id="2" xr3:uid="{0C0F62B2-6D8B-4612-8661-C4AEAF10F724}" name="Amp Scores"/>
+    <tableColumn id="3" xr3:uid="{F23E3320-EF73-4EAA-9D7A-7B29226DE926}" name="Speaker Scores"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6B95C191-D469-4E73-961D-8C05B26BA06F}" name="Teleop" displayName="Teleop" ref="L1:O1001" totalsRowShown="0">
+  <autoFilter ref="L1:O1001" xr:uid="{6B95C191-D469-4E73-961D-8C05B26BA06F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{E6969652-2CF1-420C-AA9A-9DA548E44D1A}" name="Amp Scores"/>
+    <tableColumn id="2" xr3:uid="{412AF410-FAAF-42D5-B479-70EFDD2D5680}" name="Speaker Scores"/>
+    <tableColumn id="3" xr3:uid="{0BD65973-1880-4AFD-85C3-EB6C0E68C84A}" name="Times Amplified"/>
+    <tableColumn id="4" xr3:uid="{268BE69A-44F6-4BF6-8492-A21F7D7D9982}" name="Pickup From"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B3FF2169-8525-463C-8554-DBCFBB91EDF1}" name="Endgame" displayName="Endgame" ref="P1:R1001" totalsRowShown="0">
+  <autoFilter ref="P1:R1001" xr:uid="{B3FF2169-8525-463C-8554-DBCFBB91EDF1}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5C7B2AFA-0193-4FE1-99BE-B31C9C27D934}" name="Stage Timer"/>
+    <tableColumn id="2" xr3:uid="{7A154AB6-CC34-44A4-8033-5651A1626881}" name="Final Status"/>
+    <tableColumn id="3" xr3:uid="{BF4261FC-1A55-415A-8ED8-613B9E12D62B}" name="Note in Trap"/>
+  </tableColumns>
+  <tableStyleInfo name="Endgame" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{75690A51-6A40-4696-931E-84AD5FCB64CA}" name="Micesllaneous" displayName="Micesllaneous" ref="S1:Z1001" totalsRowShown="0">
+  <autoFilter ref="S1:Z1001" xr:uid="{75690A51-6A40-4696-931E-84AD5FCB64CA}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{C68A975E-CF9B-4FDF-B21D-EA0495F8643D}" name="Driver Skill"/>
+    <tableColumn id="2" xr3:uid="{2CF54F34-D2A9-4FA6-AEBD-4BA0AD204CDA}" name="Defense Rating"/>
+    <tableColumn id="3" xr3:uid="{28429437-E450-440A-A55C-1D009F3A2586}" name="Speed Rating"/>
+    <tableColumn id="4" xr3:uid="{2FC5A830-5B65-427A-A9B3-C6FC38026542}" name="Died/Immobilized"/>
+    <tableColumn id="5" xr3:uid="{F92656B3-5C1C-42D8-BEBE-69AB119C9FC7}" name="Tippy"/>
+    <tableColumn id="6" xr3:uid="{CAEE60F1-FA3D-46F8-AB8F-AAF5D0E9FD77}" name="Dropped Notes (&gt;2)"/>
+    <tableColumn id="7" xr3:uid="{CD475386-DC34-4BC9-B5FD-58FE2F4B659D}" name="Good Alliance Partner?"/>
+    <tableColumn id="8" xr3:uid="{3DF49657-53EE-4BB1-9922-73F9AD503936}" name="Comments"/>
+  </tableColumns>
+  <tableStyleInfo name="Miscellaneous" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -410,177 +1562,355 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="9.1328125" customWidth="1"/>
+    <col min="1" max="9" width="11" customWidth="1"/>
+    <col min="10" max="22" width="12" customWidth="1"/>
+    <col min="23" max="26" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1">
-        <v>3646</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1">
-        <v>2</v>
-      </c>
-      <c r="J1">
-        <v>0</v>
-      </c>
-      <c r="K1">
-        <v>5</v>
-      </c>
-      <c r="L1">
-        <v>7</v>
-      </c>
-      <c r="M1">
-        <v>4</v>
-      </c>
-      <c r="N1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1">
-        <v>0</v>
-      </c>
-      <c r="P1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1">
-        <v>0</v>
-      </c>
-      <c r="R1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T1">
-        <v>3</v>
-      </c>
-      <c r="U1">
-        <v>0</v>
-      </c>
-      <c r="V1">
-        <v>1</v>
-      </c>
-      <c r="W1">
-        <v>0</v>
-      </c>
-      <c r="X1">
-        <v>0</v>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" t="s">
+        <v>32</v>
       </c>
       <c r="Y1" t="s">
-        <v>9</v>
+        <v>33</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2134</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>62</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>2502</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
+      <c r="L2">
         <v>3</v>
       </c>
-      <c r="J2">
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
         <v>5</v>
       </c>
-      <c r="K2">
-        <v>4</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2">
+      <c r="O2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2">
+        <v>5.2</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" t="s">
         <v>3</v>
       </c>
-      <c r="N2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2">
-        <v>6.5</v>
-      </c>
-      <c r="P2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2">
+      <c r="U2">
+        <v>3</v>
+      </c>
+      <c r="V2">
         <v>0</v>
-      </c>
-      <c r="R2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T2">
-        <v>3</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
         <v>0</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2254</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="M3">
+        <v>7</v>
+      </c>
+      <c r="N3">
+        <v>10</v>
+      </c>
+      <c r="O3" t="s">
         <v>15</v>
+      </c>
+      <c r="P3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3">
+        <v>3</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:K1">
+  <conditionalFormatting sqref="A5:H5 I6:K6">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>"L1 = TRUE"</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry!" error="Please select initials" promptTitle="Initials" prompt="Please select the initials of the person" sqref="A3:A1048576" xr:uid="{6D3F4AEF-39C7-41BA-9E15-DBADAA285360}">
+      <formula1>$A:$A</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="5">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2CD79F-6151-4C3C-A4EF-3143C630C872}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>2134</v>
+      </c>
+      <c r="D1">
+        <f>A1</f>
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <f>INDEX(Data!$L$2:$O$1000,MATCH(Sheet1!$D$1,Data!$F$2:$F$1000,0),MATCH(C2,Data!$L$1:$O$1,0))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <f>INDEX(Data!$L$2:$O$1000,MATCH(Sheet1!$D$1,Data!$F$2:$F$1000,0),MATCH(C3,Data!$L$1:$O$1,0))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4">
+        <f>INDEX(Data!$L$2:$O$1000,MATCH(Sheet1!$D$1,Data!$F$2:$F$1000,0),MATCH(C4,Data!$L$1:$O$1,0))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="str">
+        <f>INDEX(Data!$L$2:$O$1000,MATCH(Sheet1!$D$1,Data!$F$2:$F$1000,0),MATCH(C5,Data!$L$1:$O$1,0))</f>
+        <v>b</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{74B1DDDF-2819-400A-A0B2-655D78B3D708}">
+          <x14:formula1>
+            <xm:f>Data!$F$2:$F$1000</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Excel/TestSheet.xlsx
+++ b/Excel/TestSheet.xlsx
@@ -5,16 +5,16 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crdan_000\Documents\code\html_javascript\frc_scoutingpass_2024\ScoutingPASS\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crdan\Documents\code\javascript\FRC\ScoutingPASS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE9689A-ABCF-47DA-9636-F80C4A7C333D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF514AA-7ED7-4B6B-A6D7-9488F4F67656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="463" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="503" windowWidth="22695" windowHeight="14595" tabRatio="463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="IndividualTeam" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
   <si>
     <t>s</t>
   </si>
@@ -69,18 +69,12 @@
     <t>Match #</t>
   </si>
   <si>
-    <t>CA</t>
-  </si>
-  <si>
     <t>grand forks</t>
   </si>
   <si>
     <t>p</t>
   </si>
   <si>
-    <t>[13]</t>
-  </si>
-  <si>
     <t>l</t>
   </si>
   <si>
@@ -90,9 +84,6 @@
     <t>n</t>
   </si>
   <si>
-    <t>com</t>
-  </si>
-  <si>
     <t>Position</t>
   </si>
   <si>
@@ -151,6 +142,81 @@
   </si>
   <si>
     <t>Times Amplified</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>Grand forks</t>
+  </si>
+  <si>
+    <t>qm</t>
+  </si>
+  <si>
+    <t>[48]</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>Talon stinky</t>
+  </si>
+  <si>
+    <t>Bs</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>[37]</t>
+  </si>
+  <si>
+    <t>Carter booty</t>
+  </si>
+  <si>
+    <t>GH</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>test :D</t>
+  </si>
+  <si>
+    <t>Pog</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>good defense, how many times they were voted good at defense</t>
+  </si>
+  <si>
+    <t>auto, total scores during auto</t>
+  </si>
+  <si>
+    <t>climb, if they climbed in a match succesfully</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>driver skill, same as defense</t>
+  </si>
+  <si>
+    <t>Scores, average</t>
   </si>
 </sst>
 </file>
@@ -199,7 +265,42 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -312,15 +413,15 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Endgame" pivot="0" count="3" xr9:uid="{38911349-03B7-4372-9916-EB99E6E56839}">
-      <tableStyleElement type="wholeTable" dxfId="7"/>
-      <tableStyleElement type="headerRow" dxfId="6"/>
-      <tableStyleElement type="firstRowStripe" dxfId="5"/>
+      <tableStyleElement type="wholeTable" dxfId="12"/>
+      <tableStyleElement type="headerRow" dxfId="11"/>
+      <tableStyleElement type="firstRowStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="Miscellaneous" pivot="0" count="4" xr9:uid="{4C99B414-7197-4D54-A8CA-E08CBAD8C634}">
-      <tableStyleElement type="wholeTable" dxfId="4"/>
-      <tableStyleElement type="headerRow" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+      <tableStyleElement type="wholeTable" dxfId="9"/>
+      <tableStyleElement type="headerRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="secondRowStripe" dxfId="6"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -403,11 +504,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>IndividualTeam!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2134</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -426,41 +527,32 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$2:$C$5</c:f>
+              <c:f>IndividualTeam!$C$2:$C$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Amp Scores</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Speaker Scores</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Times Amplified</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Pickup From</c:v>
+                  <c:v>Scores, average</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$5</c:f>
+              <c:f>IndividualTeam!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1562,20 +1654,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="9" width="11" customWidth="1"/>
     <col min="10" max="22" width="12" customWidth="1"/>
     <col min="23" max="26" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1595,215 +1687,212 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="V1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>37</v>
       </c>
-      <c r="O1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" t="s">
-        <v>29</v>
-      </c>
-      <c r="U1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2">
+        <v>246</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
         <v>2</v>
       </c>
-      <c r="F2">
-        <v>2134</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
       <c r="K2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L2">
         <v>3</v>
       </c>
       <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2">
         <v>4</v>
-      </c>
-      <c r="N2">
-        <v>5</v>
-      </c>
-      <c r="O2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2">
-        <v>5.2</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U2">
-        <v>3</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
         <v>0</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
-      <c r="Z2" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3">
+        <v>8396</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>11</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3">
         <v>2</v>
       </c>
-      <c r="F3">
-        <v>2254</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>5</v>
-      </c>
-      <c r="L3">
-        <v>6</v>
-      </c>
-      <c r="M3">
-        <v>7</v>
-      </c>
-      <c r="N3">
-        <v>10</v>
-      </c>
-      <c r="O3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3">
-        <v>4.4000000000000004</v>
-      </c>
       <c r="Q3" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T3" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3">
         <v>1</v>
       </c>
-      <c r="T3" t="s">
-        <v>36</v>
-      </c>
-      <c r="U3">
-        <v>3</v>
-      </c>
       <c r="V3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <v>1</v>
@@ -1811,12 +1900,259 @@
       <c r="Y3">
         <v>0</v>
       </c>
-      <c r="Z3" t="s">
-        <v>17</v>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4">
+        <v>8765</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5">
+        <v>3646</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>7</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5">
+        <v>3</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6">
+        <v>62</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2502</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6">
+        <v>6.5</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>40</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s">
+        <v>41</v>
+      </c>
+      <c r="U6">
+        <v>3</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A5:H5 I6:K6">
+  <conditionalFormatting sqref="A5:G5">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>"L1 = TRUE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9:K9 I8">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>"L1 = TRUE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6:L6 J5">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>"L1 = TRUE"</formula>
     </cfRule>
@@ -1839,62 +2175,83 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2CD79F-6151-4C3C-A4EF-3143C630C872}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.265625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.1328125" customWidth="1"/>
+    <col min="8" max="8" width="22.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1">
-        <v>2134</v>
+        <v>246</v>
       </c>
       <c r="D1">
         <f>A1</f>
-        <v>2134</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2">
-        <f>INDEX(Data!$L$2:$O$1000,MATCH(Sheet1!$D$1,Data!$F$2:$F$1000,0),MATCH(C2,Data!$L$1:$O$1,0))</f>
-        <v>3</v>
+        <v>59</v>
+      </c>
+      <c r="D2" t="e">
+        <f>INDEX(Data!$L$2:$O$1000,MATCH(IndividualTeam!$D$1,Data!$F$2:$F$1000,0),MATCH(C2,Data!$L$1:$O$1,0))</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3">
-        <f>INDEX(Data!$L$2:$O$1000,MATCH(Sheet1!$D$1,Data!$F$2:$F$1000,0),MATCH(C3,Data!$L$1:$O$1,0))</f>
-        <v>4</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D3" t="e">
+        <f>INDEX(Data!$L$2:$O$1000,MATCH(IndividualTeam!$D$1,Data!$F$2:$F$1000,0),MATCH(C3,Data!$L$1:$O$1,0))</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4">
-        <f>INDEX(Data!$L$2:$O$1000,MATCH(Sheet1!$D$1,Data!$F$2:$F$1000,0),MATCH(C4,Data!$L$1:$O$1,0))</f>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D4" t="e">
+        <f>INDEX(Data!$L$2:$O$1000,MATCH(IndividualTeam!$D$1,Data!$F$2:$F$1000,0),MATCH(C4,Data!$L$1:$O$1,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D5" t="e">
+        <f>INDEX(Data!$L$2:$O$1000,MATCH(IndividualTeam!$D$1,Data!$F$2:$F$1000,0),MATCH(C5,Data!$L$1:$O$1,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10">
+        <f>AVERAGE(MATCH($D$1,Data!$J$2:$J$1000))</f>
         <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="str">
-        <f>INDEX(Data!$L$2:$O$1000,MATCH(Sheet1!$D$1,Data!$F$2:$F$1000,0),MATCH(C5,Data!$L$1:$O$1,0))</f>
-        <v>b</v>
       </c>
     </row>
   </sheetData>
